--- a/aula07/BLOCO_AU SIMPLES no excel.xlsx
+++ b/aula07/BLOCO_AU SIMPLES no excel.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\delineamentos22\aula07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="21015" windowHeight="11250"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -150,8 +155,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +218,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -259,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,9 +304,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,6 +339,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -500,24 +515,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -546,7 +561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +595,7 @@
         <v>123.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,11 +625,11 @@
         <v>445</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K7" si="1">J4/4</f>
+        <f t="shared" ref="K4:K5" si="1">J4/4</f>
         <v>111.25</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +663,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,11 +690,11 @@
         <v>351</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f>SUM(F6:I6)</f>
         <v>1470</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -710,7 +725,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -740,7 +755,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -751,7 +766,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,10 +783,11 @@
         <v>129</v>
       </c>
       <c r="K10">
+        <f>F10-F$8</f>
         <v>131.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -788,10 +804,11 @@
         <v>112</v>
       </c>
       <c r="K11">
+        <f t="shared" ref="K11:K13" si="5">F11-F$8</f>
         <v>114.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -808,10 +825,11 @@
         <v>156</v>
       </c>
       <c r="K12">
+        <f t="shared" si="5"/>
         <v>158.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -828,10 +846,11 @@
         <v>129</v>
       </c>
       <c r="K13">
+        <f>G13-G$8</f>
         <v>130.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -848,10 +867,11 @@
         <v>154</v>
       </c>
       <c r="K14">
+        <f t="shared" ref="K14:K16" si="6">G14-G$8</f>
         <v>155.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -868,10 +888,11 @@
         <v>165</v>
       </c>
       <c r="K15">
+        <f t="shared" si="6"/>
         <v>166.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -888,10 +909,11 @@
         <v>131</v>
       </c>
       <c r="K16">
-        <v>140.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <f>H16-H$8</f>
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -908,10 +930,11 @@
         <v>136</v>
       </c>
       <c r="K17">
-        <v>145.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <f t="shared" ref="K17:K19" si="7">H17-H$8</f>
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,10 +951,11 @@
         <v>126</v>
       </c>
       <c r="K18">
-        <v>135.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <f t="shared" si="7"/>
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,10 +973,11 @@
         <v>111</v>
       </c>
       <c r="K19">
+        <f>I19-I$8</f>
         <v>116.5</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,10 +995,11 @@
         <v>131</v>
       </c>
       <c r="K20">
+        <f t="shared" ref="K20:K21" si="8">I20-I$8</f>
         <v>136.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,10 +1017,11 @@
         <v>134</v>
       </c>
       <c r="K21">
+        <f t="shared" si="8"/>
         <v>139.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,7 +1032,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1026,23 +1053,23 @@
         <v>397</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:I23" si="5">SUM(G10:G22)</f>
+        <f t="shared" ref="G23:I23" si="9">SUM(G10:G22)</f>
         <v>448</v>
       </c>
       <c r="H23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>393</v>
       </c>
       <c r="I23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>376</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23" si="6">SUM(F23:I23)</f>
+        <f>SUM(F23:I23)</f>
         <v>1614</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1074,7 +1101,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,23 +1122,23 @@
         <v>757</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25:J25" si="7">G23+G24</f>
+        <f t="shared" ref="G25:J25" si="10">G23+G24</f>
         <v>811</v>
       </c>
       <c r="H25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>789</v>
       </c>
       <c r="I25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>727</v>
       </c>
       <c r="J25">
-        <f t="shared" si="7"/>
+        <f>J23+J24</f>
         <v>3084</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1149,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1131,15 +1158,15 @@
         <v>95508.166666666672</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:J27" si="8">G25*G25/6</f>
+        <f>G25*G25/6</f>
         <v>109620.16666666667</v>
       </c>
       <c r="H27">
-        <f t="shared" si="8"/>
+        <f>H25*H25/6</f>
         <v>103753.5</v>
       </c>
       <c r="I27">
-        <f t="shared" si="8"/>
+        <f>I25*I25/6</f>
         <v>88088.166666666672</v>
       </c>
       <c r="J27">
@@ -1147,7 +1174,7 @@
         <v>396294</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1162,7 +1189,7 @@
         <v>676.00000000005821</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1176,7 +1203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -1184,10 +1211,11 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
+        <f>SUMSQ(F6:I6)/3-J6*J6/12</f>
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1195,10 +1223,11 @@
         <v>2</v>
       </c>
       <c r="C31" s="1">
+        <f>SUMSQ(J3:J5)/4-J6*J6/12</f>
         <v>930.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1206,13 +1235,14 @@
         <v>6</v>
       </c>
       <c r="C32" s="2">
+        <f>C33-C31-C30</f>
         <v>195.5</v>
       </c>
       <c r="D32" s="3">
         <v>32.58</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1220,10 +1250,11 @@
         <v>23</v>
       </c>
       <c r="C33" s="1">
+        <f>SUMSQ(F3:I5)-J6*J6/12</f>
         <v>1513</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1234,7 +1265,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1248,7 +1279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -1259,7 +1290,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1279,7 +1310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -1293,7 +1324,7 @@
         <v>32.58</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1311,24 +1342,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
